--- a/xlsx/一篮子货币_intext.xlsx
+++ b/xlsx/一篮子货币_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
     <t>一篮子货币</t>
   </si>
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E5%85%B1%E5%90%8C%E9%AB%94</t>
   </si>
   <si>
-    <t>歐洲共同體</t>
-  </si>
-  <si>
-    <t>政策_政策_貨幣政策_一篮子货币</t>
+    <t>欧洲共同体</t>
+  </si>
+  <si>
+    <t>政策_政策_货币政策_一篮子货币</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E5%85%83</t>
   </si>
   <si>
-    <t>歐元</t>
+    <t>欧元</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%88%AB%E6%8F%90%E6%AC%BE%E6%9D%83</t>
@@ -65,9 +65,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E5%85%83</t>
   </si>
   <si>
-    <t>欧元</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%A9%E5%85%83</t>
   </si>
   <si>
@@ -125,13 +122,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E9%8C%A2</t>
   </si>
   <si>
-    <t>金錢</t>
+    <t>金钱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3</t>
   </si>
   <si>
-    <t>貨幣</t>
+    <t>货币</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:Money-stub</t>
@@ -711,7 +708,7 @@
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -737,10 +734,10 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
         <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -766,10 +763,10 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
         <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -795,10 +792,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -824,10 +821,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -853,10 +850,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -882,10 +879,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -911,10 +908,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -940,10 +937,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -969,10 +966,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -998,10 +995,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>3</v>
@@ -1027,10 +1024,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>7</v>
@@ -1056,10 +1053,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>3</v>
